--- a/Settings-allGT.xlsx
+++ b/Settings-allGT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BaxterAlgorithms_CSC2019\CTC_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{390EB1B0-923F-470F-820A-CCF22E48BCAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D70E844-6C3B-4BB6-9682-779C1FE187FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="31260" yWindow="2430" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Settings-allGT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
   <si>
     <t>setting</t>
   </si>
@@ -52,33 +52,42 @@
     <t>SegMinSumIntensity</t>
   </si>
   <si>
+    <t>BF-C2DL-HSC</t>
+  </si>
+  <si>
+    <t>37.4027</t>
+  </si>
+  <si>
+    <t>4.6186</t>
+  </si>
+  <si>
+    <t>0.93389</t>
+  </si>
+  <si>
+    <t>0.0071904</t>
+  </si>
+  <si>
+    <t>0.023956</t>
+  </si>
+  <si>
+    <t>7.496</t>
+  </si>
+  <si>
+    <t>151.1994</t>
+  </si>
+  <si>
+    <t>26.6334</t>
+  </si>
+  <si>
+    <t>BF-C2DL-MuSC</t>
+  </si>
+  <si>
+    <t>DIC-C2DH-HeLa</t>
+  </si>
+  <si>
     <t>Fluo-C2DL-MSC</t>
   </si>
   <si>
-    <t>17.1703</t>
-  </si>
-  <si>
-    <t>2.5791</t>
-  </si>
-  <si>
-    <t>0.86021</t>
-  </si>
-  <si>
-    <t>0.01078</t>
-  </si>
-  <si>
-    <t>0.21165</t>
-  </si>
-  <si>
-    <t>9.017</t>
-  </si>
-  <si>
-    <t>434.9124</t>
-  </si>
-  <si>
-    <t>59.3086</t>
-  </si>
-  <si>
     <t>Fluo-C3DH-A549</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>Fluo-N3DH-CHO</t>
+  </si>
+  <si>
+    <t>PhC-C2DH-U373</t>
   </si>
   <si>
     <t>PhC-C2DL-PSC</t>
@@ -941,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1281,6 +1293,134 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
